--- a/v2/Entities/Phone (Telefone).xlsx
+++ b/v2/Entities/Phone (Telefone).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr showInkAnnotation="0" codeName="EstaPastaDeTrabalho" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uilan\Meu Drive\Off\Uilan\Curso Dev Full Stack - Turma 001\Documentations\Entities\entidades v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FullDevProjects\v2\Entities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD58AE73-11AC-4162-9CC1-A65360B1D3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406D6921-75FE-4611-8A60-B32B3760F20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -779,7 +779,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -948,7 +948,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="8">
-        <v>8000</v>
+        <v>255</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
